--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H2">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I2">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J2">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.411293</v>
+        <v>2.058705666666667</v>
       </c>
       <c r="N2">
-        <v>7.233879</v>
+        <v>6.176117</v>
       </c>
       <c r="O2">
-        <v>0.2412413606327032</v>
+        <v>0.2104473977169548</v>
       </c>
       <c r="P2">
-        <v>0.2561068195015754</v>
+        <v>0.2148737181578212</v>
       </c>
       <c r="Q2">
-        <v>6.265739234149668</v>
+        <v>7.016747598634778</v>
       </c>
       <c r="R2">
-        <v>56.391653107347</v>
+        <v>63.150728387713</v>
       </c>
       <c r="S2">
-        <v>0.1200294590604748</v>
+        <v>0.135789722774223</v>
       </c>
       <c r="T2">
-        <v>0.1403633229384491</v>
+        <v>0.1427281533845829</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H3">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I3">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J3">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.218141</v>
       </c>
       <c r="O3">
-        <v>0.440809463342547</v>
+        <v>0.4504000452235257</v>
       </c>
       <c r="P3">
-        <v>0.4679724462122428</v>
+        <v>0.4598732672655554</v>
       </c>
       <c r="Q3">
-        <v>11.44910284872367</v>
+        <v>15.01726070282767</v>
       </c>
       <c r="R3">
-        <v>103.041925638513</v>
+        <v>135.155346325449</v>
       </c>
       <c r="S3">
-        <v>0.2193244197221274</v>
+        <v>0.2906175031950642</v>
       </c>
       <c r="T3">
-        <v>0.2564795725542208</v>
+        <v>0.3054671496843476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H4">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I4">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J4">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.816681</v>
+        <v>1.016676333333334</v>
       </c>
       <c r="N4">
-        <v>2.450043</v>
+        <v>3.050029</v>
       </c>
       <c r="O4">
-        <v>0.08170605382376871</v>
+        <v>0.1039278669771389</v>
       </c>
       <c r="P4">
-        <v>0.08674083715971724</v>
+        <v>0.1061137720867628</v>
       </c>
       <c r="Q4">
-        <v>2.122143672911</v>
+        <v>3.46516810829789</v>
       </c>
       <c r="R4">
-        <v>19.099293056199</v>
+        <v>31.186512974681</v>
       </c>
       <c r="S4">
-        <v>0.04065278614211031</v>
+        <v>0.06705873485935268</v>
       </c>
       <c r="T4">
-        <v>0.04753966396480873</v>
+        <v>0.07048522671112384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H5">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I5">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J5">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.7405105</v>
+        <v>0.604549</v>
       </c>
       <c r="N5">
-        <v>3.481021</v>
+        <v>1.209098</v>
       </c>
       <c r="O5">
-        <v>0.1741319371870223</v>
+        <v>0.06179890884955092</v>
       </c>
       <c r="P5">
-        <v>0.1232413780944074</v>
+        <v>0.04206581301442076</v>
       </c>
       <c r="Q5">
-        <v>4.522712473058834</v>
+        <v>2.060502291653667</v>
       </c>
       <c r="R5">
-        <v>27.136274838353</v>
+        <v>12.363013749922</v>
       </c>
       <c r="S5">
-        <v>0.08663921547654162</v>
+        <v>0.03987531702205467</v>
       </c>
       <c r="T5">
-        <v>0.06754435272950003</v>
+        <v>0.02794188076440139</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H6">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I6">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J6">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6208233333333334</v>
+        <v>1.696541</v>
       </c>
       <c r="N6">
-        <v>1.86247</v>
+        <v>5.089623</v>
       </c>
       <c r="O6">
-        <v>0.06211118501395874</v>
+        <v>0.1734257812328297</v>
       </c>
       <c r="P6">
-        <v>0.06593851903205723</v>
+        <v>0.1770734294754397</v>
       </c>
       <c r="Q6">
-        <v>1.613207983078889</v>
+        <v>5.782371021016334</v>
       </c>
       <c r="R6">
-        <v>14.51887184771</v>
+        <v>52.04133918914701</v>
       </c>
       <c r="S6">
-        <v>0.03090337378000965</v>
+        <v>0.1119017816850473</v>
       </c>
       <c r="T6">
-        <v>0.03613863019732198</v>
+        <v>0.1176196131345473</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.649123</v>
       </c>
       <c r="I7">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J7">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.411293</v>
+        <v>2.058705666666667</v>
       </c>
       <c r="N7">
-        <v>7.233879</v>
+        <v>6.176117</v>
       </c>
       <c r="O7">
-        <v>0.2412413606327032</v>
+        <v>0.2104473977169548</v>
       </c>
       <c r="P7">
-        <v>0.2561068195015754</v>
+        <v>0.2148737181578212</v>
       </c>
       <c r="Q7">
-        <v>2.129270582013</v>
+        <v>1.817921510599</v>
       </c>
       <c r="R7">
-        <v>19.163435238117</v>
+        <v>16.361293595391</v>
       </c>
       <c r="S7">
-        <v>0.04078931257774999</v>
+        <v>0.03518083762875616</v>
       </c>
       <c r="T7">
-        <v>0.04769931897221549</v>
+        <v>0.03697846852242348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.649123</v>
       </c>
       <c r="I8">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J8">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>13.218141</v>
       </c>
       <c r="O8">
-        <v>0.440809463342547</v>
+        <v>0.4504000452235257</v>
       </c>
       <c r="P8">
-        <v>0.4679724462122428</v>
+        <v>0.4598732672655554</v>
       </c>
       <c r="Q8">
         <v>3.890720148927</v>
@@ -948,10 +948,10 @@
         <v>35.016481340343</v>
       </c>
       <c r="S8">
-        <v>0.07453247212813111</v>
+        <v>0.07529411639627369</v>
       </c>
       <c r="T8">
-        <v>0.08715881531592101</v>
+        <v>0.0791414105162605</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.649123</v>
       </c>
       <c r="I9">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J9">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.816681</v>
+        <v>1.016676333333334</v>
       </c>
       <c r="N9">
-        <v>2.450043</v>
+        <v>3.050029</v>
       </c>
       <c r="O9">
-        <v>0.08170605382376871</v>
+        <v>0.1039278669771389</v>
       </c>
       <c r="P9">
-        <v>0.08674083715971724</v>
+        <v>0.1061137720867628</v>
       </c>
       <c r="Q9">
-        <v>0.721162806921</v>
+        <v>0.8977668860630001</v>
       </c>
       <c r="R9">
-        <v>6.490465262289</v>
+        <v>8.079901974567001</v>
       </c>
       <c r="S9">
-        <v>0.01381493521745779</v>
+        <v>0.0173737924673379</v>
       </c>
       <c r="T9">
-        <v>0.01615528578134134</v>
+        <v>0.01826153898460453</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.649123</v>
       </c>
       <c r="I10">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J10">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.7405105</v>
+        <v>0.604549</v>
       </c>
       <c r="N10">
-        <v>3.481021</v>
+        <v>1.209098</v>
       </c>
       <c r="O10">
-        <v>0.1741319371870223</v>
+        <v>0.06179890884955092</v>
       </c>
       <c r="P10">
-        <v>0.1232413780944074</v>
+        <v>0.04206581301442076</v>
       </c>
       <c r="Q10">
-        <v>1.5369421324305</v>
+        <v>0.533841553509</v>
       </c>
       <c r="R10">
-        <v>9.221652794582999</v>
+        <v>3.203049321054</v>
       </c>
       <c r="S10">
-        <v>0.02944238913701318</v>
+        <v>0.01033102524173048</v>
       </c>
       <c r="T10">
-        <v>0.02295342941566766</v>
+        <v>0.007239272237479502</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>2.649123</v>
       </c>
       <c r="I11">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J11">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6208233333333334</v>
+        <v>1.696541</v>
       </c>
       <c r="N11">
-        <v>1.86247</v>
+        <v>5.089623</v>
       </c>
       <c r="O11">
-        <v>0.06211118501395874</v>
+        <v>0.1734257812328297</v>
       </c>
       <c r="P11">
-        <v>0.06593851903205723</v>
+        <v>0.1770734294754397</v>
       </c>
       <c r="Q11">
-        <v>0.54821245709</v>
+        <v>1.498115261181</v>
       </c>
       <c r="R11">
-        <v>4.93391211381</v>
+        <v>13.483037350629</v>
       </c>
       <c r="S11">
-        <v>0.01050181665973153</v>
+        <v>0.02899187310644906</v>
       </c>
       <c r="T11">
-        <v>0.01228090082875069</v>
+        <v>0.03047326724809497</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H12">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I12">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J12">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.411293</v>
+        <v>2.058705666666667</v>
       </c>
       <c r="N12">
-        <v>7.233879</v>
+        <v>6.176117</v>
       </c>
       <c r="O12">
-        <v>0.2412413606327032</v>
+        <v>0.2104473977169548</v>
       </c>
       <c r="P12">
-        <v>0.2561068195015754</v>
+        <v>0.2148737181578212</v>
       </c>
       <c r="Q12">
-        <v>0.6164012408830001</v>
+        <v>0.4203444643143333</v>
       </c>
       <c r="R12">
-        <v>5.547611167946999</v>
+        <v>3.783100178829</v>
       </c>
       <c r="S12">
-        <v>0.01180807319655917</v>
+        <v>0.008134603315363392</v>
       </c>
       <c r="T12">
-        <v>0.01380844672918519</v>
+        <v>0.008550256131300704</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H13">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I13">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J13">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>13.218141</v>
       </c>
       <c r="O13">
-        <v>0.440809463342547</v>
+        <v>0.4504000452235257</v>
       </c>
       <c r="P13">
-        <v>0.4679724462122428</v>
+        <v>0.4598732672655554</v>
       </c>
       <c r="Q13">
-        <v>1.126322200657</v>
+        <v>0.899622270413</v>
       </c>
       <c r="R13">
-        <v>10.136899805913</v>
+        <v>8.096600433716999</v>
       </c>
       <c r="S13">
-        <v>0.02157635985484964</v>
+        <v>0.01740969829450135</v>
       </c>
       <c r="T13">
-        <v>0.0252315522359938</v>
+        <v>0.01829927948736192</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H14">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I14">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J14">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.816681</v>
+        <v>1.016676333333334</v>
       </c>
       <c r="N14">
-        <v>2.450043</v>
+        <v>3.050029</v>
       </c>
       <c r="O14">
-        <v>0.08170605382376871</v>
+        <v>0.1039278669771389</v>
       </c>
       <c r="P14">
-        <v>0.08674083715971724</v>
+        <v>0.1061137720867628</v>
       </c>
       <c r="Q14">
-        <v>0.208768980711</v>
+        <v>0.2075839570636667</v>
       </c>
       <c r="R14">
-        <v>1.878920826399</v>
+        <v>1.868255613573</v>
       </c>
       <c r="S14">
-        <v>0.003999277162186073</v>
+        <v>0.004017212759304025</v>
       </c>
       <c r="T14">
-        <v>0.004676783818158012</v>
+        <v>0.004222479781049316</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H15">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I15">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J15">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.7405105</v>
+        <v>0.604549</v>
       </c>
       <c r="N15">
-        <v>3.481021</v>
+        <v>1.209098</v>
       </c>
       <c r="O15">
-        <v>0.1741319371870223</v>
+        <v>0.06179890884955092</v>
       </c>
       <c r="P15">
-        <v>0.1232413780944074</v>
+        <v>0.04206581301442076</v>
       </c>
       <c r="Q15">
-        <v>0.4449284396255</v>
+        <v>0.123436210271</v>
       </c>
       <c r="R15">
-        <v>2.669570637753</v>
+        <v>0.7406172616260001</v>
       </c>
       <c r="S15">
-        <v>0.008523259256913119</v>
+        <v>0.002388766096739889</v>
       </c>
       <c r="T15">
-        <v>0.006644774268642724</v>
+        <v>0.001673883054327407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H16">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I16">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J16">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6208233333333334</v>
+        <v>1.696541</v>
       </c>
       <c r="N16">
-        <v>1.86247</v>
+        <v>5.089623</v>
       </c>
       <c r="O16">
-        <v>0.06211118501395874</v>
+        <v>0.1734257812328297</v>
       </c>
       <c r="P16">
-        <v>0.06593851903205723</v>
+        <v>0.1770734294754397</v>
       </c>
       <c r="Q16">
-        <v>0.1587016895233334</v>
+        <v>0.346398044839</v>
       </c>
       <c r="R16">
-        <v>1.42831520571</v>
+        <v>3.117582403551</v>
       </c>
       <c r="S16">
-        <v>0.003040164493544275</v>
+        <v>0.006703575099006346</v>
       </c>
       <c r="T16">
-        <v>0.003555190483515903</v>
+        <v>0.007046106843791833</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H17">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I17">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J17">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.411293</v>
+        <v>2.058705666666667</v>
       </c>
       <c r="N17">
-        <v>7.233879</v>
+        <v>6.176117</v>
       </c>
       <c r="O17">
-        <v>0.2412413606327032</v>
+        <v>0.2104473977169548</v>
       </c>
       <c r="P17">
-        <v>0.2561068195015754</v>
+        <v>0.2148737181578212</v>
       </c>
       <c r="Q17">
-        <v>3.4822217657365</v>
+        <v>0.9331196662978333</v>
       </c>
       <c r="R17">
-        <v>20.893330594419</v>
+        <v>5.598717997786999</v>
       </c>
       <c r="S17">
-        <v>0.06670708423228638</v>
+        <v>0.0180579476489095</v>
       </c>
       <c r="T17">
-        <v>0.05200516650756121</v>
+        <v>0.01265376823904765</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H18">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I18">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J18">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>13.218141</v>
       </c>
       <c r="O18">
-        <v>0.440809463342547</v>
+        <v>0.4504000452235257</v>
       </c>
       <c r="P18">
-        <v>0.4679724462122428</v>
+        <v>0.4598732672655554</v>
       </c>
       <c r="Q18">
-        <v>6.3629068571335</v>
+        <v>1.9970650360085</v>
       </c>
       <c r="R18">
-        <v>38.17744114280099</v>
+        <v>11.982390216051</v>
       </c>
       <c r="S18">
-        <v>0.1218908479228417</v>
+        <v>0.03864766457531556</v>
       </c>
       <c r="T18">
-        <v>0.09502669641355926</v>
+        <v>0.0270816263301122</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H19">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I19">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J19">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.816681</v>
+        <v>1.016676333333334</v>
       </c>
       <c r="N19">
-        <v>2.450043</v>
+        <v>3.050029</v>
       </c>
       <c r="O19">
-        <v>0.08170605382376871</v>
+        <v>0.1039278669771389</v>
       </c>
       <c r="P19">
-        <v>0.08674083715971724</v>
+        <v>0.1061137720867628</v>
       </c>
       <c r="Q19">
-        <v>1.1793939408705</v>
+        <v>0.4608141398031667</v>
       </c>
       <c r="R19">
-        <v>7.076363645223</v>
+        <v>2.764884838819</v>
       </c>
       <c r="S19">
-        <v>0.02259302716754367</v>
+        <v>0.008917781837626424</v>
       </c>
       <c r="T19">
-        <v>0.01761363359349594</v>
+        <v>0.006248968419538405</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H20">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I20">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J20">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.7405105</v>
+        <v>0.604549</v>
       </c>
       <c r="N20">
-        <v>3.481021</v>
+        <v>1.209098</v>
       </c>
       <c r="O20">
-        <v>0.1741319371870223</v>
+        <v>0.06179890884955092</v>
       </c>
       <c r="P20">
-        <v>0.1232413780944074</v>
+        <v>0.04206581301442076</v>
       </c>
       <c r="Q20">
-        <v>2.51352429862025</v>
+        <v>0.2740151592695</v>
       </c>
       <c r="R20">
-        <v>10.054097194481</v>
+        <v>1.096060637078</v>
       </c>
       <c r="S20">
-        <v>0.04815025819370723</v>
+        <v>0.005302804752500927</v>
       </c>
       <c r="T20">
-        <v>0.02502544993098686</v>
+        <v>0.00247722733722435</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H21">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I21">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J21">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6208233333333334</v>
+        <v>1.696541</v>
       </c>
       <c r="N21">
-        <v>1.86247</v>
+        <v>5.089623</v>
       </c>
       <c r="O21">
-        <v>0.06211118501395874</v>
+        <v>0.1734257812328297</v>
       </c>
       <c r="P21">
-        <v>0.06593851903205723</v>
+        <v>0.1770734294754397</v>
       </c>
       <c r="Q21">
-        <v>0.8965499107783335</v>
+        <v>0.7689665392255</v>
       </c>
       <c r="R21">
-        <v>5.37929946467</v>
+        <v>4.613799235353</v>
       </c>
       <c r="S21">
-        <v>0.0171747333857957</v>
+        <v>0.01488121835883059</v>
       </c>
       <c r="T21">
-        <v>0.01338950547352776</v>
+        <v>0.01042773475083559</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.04129366666666667</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H22">
-        <v>0.123881</v>
+        <v>1.000309</v>
       </c>
       <c r="I22">
-        <v>0.007906735232425854</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J22">
-        <v>0.008709507847176508</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.411293</v>
+        <v>2.058705666666667</v>
       </c>
       <c r="N22">
-        <v>7.233879</v>
+        <v>6.176117</v>
       </c>
       <c r="O22">
-        <v>0.2412413606327032</v>
+        <v>0.2104473977169548</v>
       </c>
       <c r="P22">
-        <v>0.2561068195015754</v>
+        <v>0.2148737181578212</v>
       </c>
       <c r="Q22">
-        <v>0.09957112937766667</v>
+        <v>0.6864472689058889</v>
       </c>
       <c r="R22">
-        <v>0.8961401643989999</v>
+        <v>6.178025420153</v>
       </c>
       <c r="S22">
-        <v>0.001907431565632946</v>
+        <v>0.0132842863497027</v>
       </c>
       <c r="T22">
-        <v>0.002230564354164388</v>
+        <v>0.01396307188046645</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.04129366666666667</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H23">
-        <v>0.123881</v>
+        <v>1.000309</v>
       </c>
       <c r="I23">
-        <v>0.007906735232425854</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J23">
-        <v>0.008709507847176508</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>13.218141</v>
       </c>
       <c r="O23">
-        <v>0.440809463342547</v>
+        <v>0.4504000452235257</v>
       </c>
       <c r="P23">
-        <v>0.4679724462122428</v>
+        <v>0.4598732672655554</v>
       </c>
       <c r="Q23">
-        <v>0.1819418361356667</v>
+        <v>1.469136156174334</v>
       </c>
       <c r="R23">
-        <v>1.637476525221</v>
+        <v>13.222225405569</v>
       </c>
       <c r="S23">
-        <v>0.003485363714597249</v>
+        <v>0.02843106276237085</v>
       </c>
       <c r="T23">
-        <v>0.004075809692547915</v>
+        <v>0.02988380124747323</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.04129366666666667</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H24">
-        <v>0.123881</v>
+        <v>1.000309</v>
       </c>
       <c r="I24">
-        <v>0.007906735232425854</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J24">
-        <v>0.008709507847176508</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.816681</v>
+        <v>1.016676333333334</v>
       </c>
       <c r="N24">
-        <v>2.450043</v>
+        <v>3.050029</v>
       </c>
       <c r="O24">
-        <v>0.08170605382376871</v>
+        <v>0.1039278669771389</v>
       </c>
       <c r="P24">
-        <v>0.08674083715971724</v>
+        <v>0.1061137720867628</v>
       </c>
       <c r="Q24">
-        <v>0.033723752987</v>
+        <v>0.3389968287734446</v>
       </c>
       <c r="R24">
-        <v>0.303513776883</v>
+        <v>3.050971458961001</v>
       </c>
       <c r="S24">
-        <v>0.0006460281344708753</v>
+        <v>0.00656034505351783</v>
       </c>
       <c r="T24">
-        <v>0.0007554700019132169</v>
+        <v>0.006895558190446716</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.04129366666666667</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H25">
-        <v>0.123881</v>
+        <v>1.000309</v>
       </c>
       <c r="I25">
-        <v>0.007906735232425854</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J25">
-        <v>0.008709507847176508</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.7405105</v>
+        <v>0.604549</v>
       </c>
       <c r="N25">
-        <v>3.481021</v>
+        <v>1.209098</v>
       </c>
       <c r="O25">
-        <v>0.1741319371870223</v>
+        <v>0.06179890884955092</v>
       </c>
       <c r="P25">
-        <v>0.1232413780944074</v>
+        <v>0.04206581301442076</v>
       </c>
       <c r="Q25">
-        <v>0.07187206041683333</v>
+        <v>0.2015786018803334</v>
       </c>
       <c r="R25">
-        <v>0.431232362501</v>
+        <v>1.209471611282</v>
       </c>
       <c r="S25">
-        <v>0.001376815122847195</v>
+        <v>0.003900995736524947</v>
       </c>
       <c r="T25">
-        <v>0.001073371749610088</v>
+        <v>0.00273354962098811</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.04129366666666667</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H26">
-        <v>0.123881</v>
+        <v>1.000309</v>
       </c>
       <c r="I26">
-        <v>0.007906735232425854</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J26">
-        <v>0.008709507847176508</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6208233333333334</v>
+        <v>1.696541</v>
       </c>
       <c r="N26">
-        <v>1.86247</v>
+        <v>5.089623</v>
       </c>
       <c r="O26">
-        <v>0.06211118501395874</v>
+        <v>0.1734257812328297</v>
       </c>
       <c r="P26">
-        <v>0.06593851903205723</v>
+        <v>0.1770734294754397</v>
       </c>
       <c r="Q26">
-        <v>0.02563607178555556</v>
+        <v>0.5656884103896668</v>
       </c>
       <c r="R26">
-        <v>0.23072464607</v>
+        <v>5.091195693507001</v>
       </c>
       <c r="S26">
-        <v>0.0004910966948775883</v>
+        <v>0.01094733298349641</v>
       </c>
       <c r="T26">
-        <v>0.0005742920489409</v>
+        <v>0.01150670749817001</v>
       </c>
     </row>
   </sheetData>
